--- a/data/trans_orig/P25D_R2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>18705</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9783</v>
+        <v>9429</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34319</v>
+        <v>33911</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03758805135048691</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01965921232799183</v>
+        <v>0.01894694884154554</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06896296175791776</v>
+        <v>0.06814338231383676</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -762,19 +762,19 @@
         <v>15906</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9028</v>
+        <v>8995</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27594</v>
+        <v>26519</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02550682933077185</v>
+        <v>0.02550682933077184</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01447837081203877</v>
+        <v>0.01442553289323725</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04425089063768883</v>
+        <v>0.04252662051656626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -783,19 +783,19 @@
         <v>34611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22130</v>
+        <v>22118</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51247</v>
+        <v>52038</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03086894189717218</v>
+        <v>0.03086894189717217</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01973696087546255</v>
+        <v>0.01972703694942976</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04570620936203285</v>
+        <v>0.04641145347575305</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>478936</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>463322</v>
+        <v>463730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>487858</v>
+        <v>488212</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.962411948649513</v>
+        <v>0.9624119486495131</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9310370382420822</v>
+        <v>0.9318566176861631</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9803407876720083</v>
+        <v>0.9810530511584546</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>846</v>
@@ -833,19 +833,19 @@
         <v>607674</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>595986</v>
+        <v>597061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>614552</v>
+        <v>614585</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9744931706692281</v>
+        <v>0.9744931706692279</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9557491093623109</v>
+        <v>0.9574733794834337</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9855216291879613</v>
+        <v>0.9855744671067627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1288</v>
@@ -854,19 +854,19 @@
         <v>1086611</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1069975</v>
+        <v>1069184</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1099092</v>
+        <v>1099104</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9691310581028278</v>
+        <v>0.9691310581028276</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.954293790637967</v>
+        <v>0.953588546524247</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9802630391245374</v>
+        <v>0.9802729630505703</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>39470</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23297</v>
+        <v>24590</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65142</v>
+        <v>63818</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04113732966415831</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0242814204591303</v>
+        <v>0.02562862685167846</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06789346634904835</v>
+        <v>0.06651344109925918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -979,19 +979,19 @@
         <v>16786</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10722</v>
+        <v>10114</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27593</v>
+        <v>26124</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01505229348378511</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00961513786411936</v>
+        <v>0.009069426491337067</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.024743547291395</v>
+        <v>0.02342626298824289</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -1000,19 +1000,19 @@
         <v>56256</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38585</v>
+        <v>39406</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78613</v>
+        <v>80736</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02711602409535891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01859830379517912</v>
+        <v>0.01899441752305949</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03789242013720971</v>
+        <v>0.03891590968795033</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>919999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>894327</v>
+        <v>895651</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>936172</v>
+        <v>934879</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9588626703358417</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9321065336509518</v>
+        <v>0.9334865589007408</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9757185795408696</v>
+        <v>0.9743713731483215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1586</v>
@@ -1050,19 +1050,19 @@
         <v>1098375</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1087568</v>
+        <v>1089037</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1104439</v>
+        <v>1105047</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9849477065162149</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9752564527086059</v>
+        <v>0.9765737370117572</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9903848621358806</v>
+        <v>0.9909305735086629</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2474</v>
@@ -1071,19 +1071,19 @@
         <v>2018374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1996017</v>
+        <v>1993894</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2036045</v>
+        <v>2035224</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9728839759046412</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9621075798627902</v>
+        <v>0.9610840903120494</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9814016962048208</v>
+        <v>0.9810055824769405</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>28950</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17529</v>
+        <v>18083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47285</v>
+        <v>45518</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02769786762267452</v>
+        <v>0.02769786762267453</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01677053281345127</v>
+        <v>0.01730068459010137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04524055014502533</v>
+        <v>0.04354933771653144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1196,19 +1196,19 @@
         <v>17232</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10324</v>
+        <v>10115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28044</v>
+        <v>28284</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01644872082425848</v>
+        <v>0.01644872082425849</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009854722336891294</v>
+        <v>0.009654558048716356</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02676824843149612</v>
+        <v>0.02699798050792129</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1217,19 +1217,19 @@
         <v>46182</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32187</v>
+        <v>30997</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66078</v>
+        <v>64196</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02206672829897708</v>
+        <v>0.02206672829897707</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01537950734546494</v>
+        <v>0.01481119529948646</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03157334993164641</v>
+        <v>0.03067391167353184</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>1016248</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>997913</v>
+        <v>999680</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1027669</v>
+        <v>1027115</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9723021323773253</v>
+        <v>0.9723021323773255</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9547594498549746</v>
+        <v>0.9564506622834684</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9832294671865488</v>
+        <v>0.9826993154098984</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1498</v>
@@ -1267,19 +1267,19 @@
         <v>1030410</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1019598</v>
+        <v>1019358</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1037318</v>
+        <v>1037527</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9835512791757416</v>
+        <v>0.9835512791757417</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9732317515685039</v>
+        <v>0.9730020194920788</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9901452776631084</v>
+        <v>0.9903454419512837</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2506</v>
@@ -1288,19 +1288,19 @@
         <v>2046658</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2026762</v>
+        <v>2028644</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2060653</v>
+        <v>2061843</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9779332717010231</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9684266500683535</v>
+        <v>0.9693260883264674</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.984620492654535</v>
+        <v>0.9851888047005133</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>31620</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20051</v>
+        <v>19252</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52584</v>
+        <v>48918</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03254658319853125</v>
+        <v>0.03254658319853124</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02063810862424016</v>
+        <v>0.0198162271686225</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05412496172649102</v>
+        <v>0.05035172238096312</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1413,19 +1413,19 @@
         <v>21291</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11971</v>
+        <v>12546</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35450</v>
+        <v>35865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02360073236111915</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01326913181703649</v>
+        <v>0.0139072917566851</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.039295574625157</v>
+        <v>0.03975462583521886</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -1434,19 +1434,19 @@
         <v>52911</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35142</v>
+        <v>37088</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72689</v>
+        <v>76058</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0282392978894169</v>
+        <v>0.02823929788941689</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01875575543084937</v>
+        <v>0.01979429921893063</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03879468034426478</v>
+        <v>0.04059288923006789</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>939914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>918950</v>
+        <v>922616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>951483</v>
+        <v>952282</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9674534168014688</v>
+        <v>0.9674534168014686</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9458750382735089</v>
+        <v>0.9496482776190373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9793618913757599</v>
+        <v>0.9801837728313775</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1294</v>
@@ -1484,19 +1484,19 @@
         <v>880857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>866698</v>
+        <v>866283</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>890177</v>
+        <v>889602</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9763992676388809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9607044253748429</v>
+        <v>0.9602453741647815</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9867308681829637</v>
+        <v>0.9860927082433149</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2217</v>
@@ -1505,19 +1505,19 @@
         <v>1820771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1800993</v>
+        <v>1797624</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1838540</v>
+        <v>1836594</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.971760702110583</v>
+        <v>0.9717607021105831</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9612053196557352</v>
+        <v>0.959407110769931</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9812442445691506</v>
+        <v>0.9802057007810691</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>118745</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91525</v>
+        <v>93441</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>151288</v>
+        <v>152307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03418267560226382</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02634697480466365</v>
+        <v>0.02689833388428949</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04355053391435557</v>
+        <v>0.0438438441919296</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -1630,19 +1630,19 @@
         <v>71215</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55725</v>
+        <v>55279</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92033</v>
+        <v>95188</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01930714571788675</v>
+        <v>0.01930714571788674</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01510775932987493</v>
+        <v>0.01498675315327602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02495102130714699</v>
+        <v>0.02580648763242512</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>144</v>
@@ -1651,19 +1651,19 @@
         <v>189960</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>160371</v>
+        <v>157666</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>227532</v>
+        <v>224585</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02652196722546034</v>
+        <v>0.02652196722546035</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02239069585073561</v>
+        <v>0.02201307985297403</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03176767038013772</v>
+        <v>0.03135617763870069</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3355098</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3322555</v>
+        <v>3321536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3382318</v>
+        <v>3380402</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9658173243977362</v>
+        <v>0.965817324397736</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9564494660856443</v>
+        <v>0.9561561558080702</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.973653025195336</v>
+        <v>0.9731016661157105</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5224</v>
@@ -1701,19 +1701,19 @@
         <v>3617316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3596498</v>
+        <v>3593343</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3632806</v>
+        <v>3633252</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9806928542821134</v>
+        <v>0.9806928542821133</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9750489786928532</v>
+        <v>0.9741935123675748</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9848922406701252</v>
+        <v>0.9850132468467239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8485</v>
@@ -1722,19 +1722,19 @@
         <v>6972414</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6934842</v>
+        <v>6937789</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7002003</v>
+        <v>7004708</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9734780327745395</v>
+        <v>0.9734780327745396</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9682323296198627</v>
+        <v>0.9686438223612992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9776093041492643</v>
+        <v>0.9779869201470258</v>
       </c>
     </row>
     <row r="18">
